--- a/biology/Botanique/Rhazya/Rhazya.xlsx
+++ b/biology/Botanique/Rhazya/Rhazya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhazya est un genre de plante à fleurs de la famille des Apocynacées, localisé en région méditerranéenne, Arabie et Asie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes pérennes, herbacées ou sous forme de petits buissons.
 Les feuilles sont alternes.
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Joseph Decaisne en hommage au grand médecin iranien du IXe-Xe siècle Rhazès (Abu Bakr Mohammad Ibn Zacariya al-Razi).
 </t>
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste est tirée des index IPNI - The International Plants Name Index et Tropicos - Index du jardin botanique du Missouri à la date de mai 2011.
 Rhazya greissii Täckh. &amp; Boulos (1974) - Égypte
